--- a/outcome/appendix/data/Table S1.xlsx
+++ b/outcome/appendix/data/Table S1.xlsx
@@ -68,10 +68,10 @@
     <t xml:space="preserve">HEV</t>
   </si>
   <si>
-    <t xml:space="preserve">Typhoid fever and paratyphoid fever</t>
+    <t xml:space="preserve">Typhoid and paratyphoid fever</t>
   </si>
   <si>
-    <t xml:space="preserve">Acute hemorrhagic conjunctivitis</t>
+    <t xml:space="preserve">AHC</t>
   </si>
   <si>
     <t xml:space="preserve">Dysentery</t>
@@ -512,16 +512,16 @@
         <v>-217.71</v>
       </c>
       <c r="F2" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.26</v>
+        <v>-0.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="I2" t="n">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -544,16 +544,16 @@
         <v>-226.46</v>
       </c>
       <c r="F3" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="G3" t="n">
         <v>1.21</v>
       </c>
       <c r="H3" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -576,16 +576,16 @@
         <v>-189.73</v>
       </c>
       <c r="F4" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="G4" t="n">
         <v>1.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -608,16 +608,16 @@
         <v>-562.2</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.78</v>
+        <v>-1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.48</v>
+        <v>-0.52</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.84</v>
+        <v>-1.9</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.11</v>
+        <v>-4.25</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -640,16 +640,16 @@
         <v>-245.7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.93</v>
+        <v>-0.99</v>
       </c>
       <c r="H6" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.33</v>
+        <v>-0.42</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -663,25 +663,25 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>-466.6</v>
+        <v>-444.75</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E7" t="n">
-        <v>-364.45</v>
+        <v>-340.26</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.54</v>
+        <v>-0.43</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.83</v>
+        <v>-0.71</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.45</v>
+        <v>-0.31</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.81</v>
+        <v>-1.45</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -896,16 +896,16 @@
         <v>-121.93</v>
       </c>
       <c r="F14" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.6</v>
+        <v>-1.64</v>
       </c>
       <c r="H14" t="n">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -928,16 +928,16 @@
         <v>-144.67</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
       <c r="G15" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -960,16 +960,16 @@
         <v>-176.72</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9</v>
+        <v>-1.03</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.42</v>
+        <v>-0.45</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.9</v>
+        <v>-1.06</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.21</v>
+        <v>-2.54</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -992,16 +992,16 @@
         <v>-114.48</v>
       </c>
       <c r="F17" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G17" t="n">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="H17" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="I17" t="n">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -1024,16 +1024,16 @@
         <v>-131.36</v>
       </c>
       <c r="F18" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="G18" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="I18" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
@@ -1047,25 +1047,25 @@
         <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>-237.45</v>
+        <v>-225.6</v>
       </c>
       <c r="D19" t="n">
         <v>0.7</v>
       </c>
       <c r="E19" t="n">
-        <v>-196.63</v>
+        <v>-185.4</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.47</v>
+        <v>-1.33</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.21</v>
+        <v>-0.05</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.51</v>
+        <v>-1.35</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.19</v>
+        <v>-2.74</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
@@ -1280,16 +1280,16 @@
         <v>-1077.27</v>
       </c>
       <c r="F26" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="n">
         <v>0.41</v>
       </c>
       <c r="H26" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="I26" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1312,16 +1312,16 @@
         <v>-4792.71</v>
       </c>
       <c r="F27" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="G27" t="n">
         <v>0.42</v>
       </c>
       <c r="H27" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I27" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         <v>-1359.6</v>
       </c>
       <c r="F29" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="G29" t="n">
         <v>0.4</v>
@@ -1385,7 +1385,7 @@
         <v>0.46</v>
       </c>
       <c r="I29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>-1225.8</v>
       </c>
       <c r="F30" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="G30" t="n">
         <v>0.43</v>
@@ -1417,7 +1417,7 @@
         <v>0.47</v>
       </c>
       <c r="I30" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1431,22 +1431,22 @@
         <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>-33489.75</v>
+        <v>-31051.11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E31" t="n">
-        <v>-29778.57</v>
+        <v>-27519.43</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.03</v>
+        <v>-2.02</v>
       </c>
       <c r="G31" t="n">
         <v>-2.04</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.03</v>
+        <v>-2.02</v>
       </c>
       <c r="I31" t="n">
         <v>-6.09</v>
@@ -1856,16 +1856,16 @@
         <v>-665.41</v>
       </c>
       <c r="F44" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="I44" t="n">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1891,13 +1891,13 @@
         <v>-1.97</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.9</v>
+        <v>-1.88</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.85</v>
+        <v>-1.83</v>
       </c>
       <c r="I45" t="n">
-        <v>-5.72</v>
+        <v>-5.68</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1920,16 +1920,16 @@
         <v>-839.95</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.15</v>
+        <v>-0.11</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.32</v>
+        <v>-0.26</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1952,16 +1952,16 @@
         <v>-778.37</v>
       </c>
       <c r="F47" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="G47" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="H47" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I47" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1984,16 +1984,16 @@
         <v>-679.86</v>
       </c>
       <c r="F48" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="G48" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="H48" t="n">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="I48" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -2007,25 +2007,25 @@
         <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>-881.98</v>
+        <v>-898.76</v>
       </c>
       <c r="D49" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E49" t="n">
-        <v>-784.12</v>
+        <v>-805.63</v>
       </c>
       <c r="F49" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="G49" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="H49" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7</v>
+        <v>0.34</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
@@ -2048,19 +2048,19 @@
         <v>-810.53</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="G50" t="n">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="H50" t="n">
-        <v>1.13</v>
+        <v>0.87</v>
       </c>
       <c r="I50" t="n">
-        <v>2.23</v>
+        <v>1.83</v>
       </c>
       <c r="J50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -2080,19 +2080,19 @@
         <v>-979.49</v>
       </c>
       <c r="F51" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="G51" t="n">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.22</v>
+        <v>-0.33</v>
       </c>
       <c r="I51" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="J51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -2112,19 +2112,19 @@
         <v>-1091.97</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.36</v>
+        <v>-1.35</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.27</v>
+        <v>-1.3</v>
       </c>
       <c r="H52" t="n">
         <v>-1.12</v>
       </c>
       <c r="I52" t="n">
-        <v>-3.75</v>
+        <v>-3.77</v>
       </c>
       <c r="J52" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -2147,16 +2147,16 @@
         <v>-0.82</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.23</v>
+        <v>-1.25</v>
       </c>
       <c r="H53" t="n">
         <v>-1.15</v>
       </c>
       <c r="I53" t="n">
-        <v>-3.2</v>
+        <v>-3.23</v>
       </c>
       <c r="J53" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -2176,19 +2176,19 @@
         <v>-830.72</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="I54" t="n">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="J54" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -2199,28 +2199,28 @@
         <v>16</v>
       </c>
       <c r="C55" t="n">
-        <v>-1496.55</v>
+        <v>-1436.46</v>
       </c>
       <c r="D55" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="E55" t="n">
-        <v>-902.49</v>
+        <v>-791.44</v>
       </c>
       <c r="F55" t="n">
-        <v>0.89</v>
+        <v>1.01</v>
       </c>
       <c r="G55" t="n">
-        <v>0.23</v>
+        <v>0.59</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>1.01</v>
       </c>
       <c r="I55" t="n">
-        <v>1.52</v>
+        <v>2.6</v>
       </c>
       <c r="J55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -2822,10 +2822,10 @@
         <v>-1.34</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.98</v>
+        <v>-0.99</v>
       </c>
       <c r="I74" t="n">
-        <v>-3.48</v>
+        <v>-3.49</v>
       </c>
       <c r="J74" t="s">
         <v>12</v>
@@ -2851,13 +2851,13 @@
         <v>-1.18</v>
       </c>
       <c r="G75" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H75" t="n">
         <v>-1.12</v>
       </c>
       <c r="I75" t="n">
-        <v>-2.13</v>
+        <v>-2.14</v>
       </c>
       <c r="J75" t="s">
         <v>12</v>
@@ -2880,16 +2880,16 @@
         <v>-40.72</v>
       </c>
       <c r="F76" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G76" t="n">
         <v>0.85</v>
       </c>
       <c r="H76" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I76" t="n">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="J76" t="s">
         <v>12</v>
@@ -2912,7 +2912,7 @@
         <v>-57.77</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="G77" t="n">
         <v>-1.14</v>
@@ -2921,7 +2921,7 @@
         <v>-0.32</v>
       </c>
       <c r="I77" t="n">
-        <v>-1.5</v>
+        <v>-1.51</v>
       </c>
       <c r="J77" t="s">
         <v>12</v>
@@ -2944,16 +2944,16 @@
         <v>-46.81</v>
       </c>
       <c r="F78" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="G78" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I78" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="J78" t="s">
         <v>12</v>
@@ -2967,25 +2967,25 @@
         <v>16</v>
       </c>
       <c r="C79" t="n">
-        <v>-60.72</v>
+        <v>-60.09</v>
       </c>
       <c r="D79" t="n">
         <v>0.39</v>
       </c>
       <c r="E79" t="n">
-        <v>-52.66</v>
+        <v>-52.4</v>
       </c>
       <c r="F79" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G79" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I79" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="J79" t="s">
         <v>12</v>
@@ -3200,16 +3200,16 @@
         <v>-820.16</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.53</v>
+        <v>-0.55</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.69</v>
+        <v>-0.72</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.65</v>
+        <v>-0.67</v>
       </c>
       <c r="I86" t="n">
-        <v>-1.87</v>
+        <v>-1.94</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
@@ -3232,16 +3232,16 @@
         <v>-625.07</v>
       </c>
       <c r="F87" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G87" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="I87" t="n">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="J87" t="s">
         <v>14</v>
@@ -3264,16 +3264,16 @@
         <v>-1011.18</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.76</v>
+        <v>-1.72</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.48</v>
+        <v>-1.49</v>
       </c>
       <c r="H88" t="n">
-        <v>-1.75</v>
+        <v>-1.72</v>
       </c>
       <c r="I88" t="n">
-        <v>-4.99</v>
+        <v>-4.93</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
@@ -3296,16 +3296,16 @@
         <v>-569.92</v>
       </c>
       <c r="F89" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="G89" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="I89" t="n">
-        <v>2.86</v>
+        <v>2.61</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
@@ -3328,16 +3328,16 @@
         <v>-628.13</v>
       </c>
       <c r="F90" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="H90" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="I90" t="n">
-        <v>0.74</v>
+        <v>0.55</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
@@ -3351,25 +3351,25 @@
         <v>16</v>
       </c>
       <c r="C91" t="n">
-        <v>-724.28</v>
+        <v>-655.92</v>
       </c>
       <c r="D91" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="E91" t="n">
-        <v>-595.91</v>
+        <v>-538.16</v>
       </c>
       <c r="F91" t="n">
-        <v>0.72</v>
+        <v>0.94</v>
       </c>
       <c r="G91" t="n">
-        <v>0.29</v>
+        <v>0.46</v>
       </c>
       <c r="H91" t="n">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="I91" t="n">
-        <v>1.65</v>
+        <v>2.29</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
@@ -3395,13 +3395,13 @@
         <v>1.21</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.83</v>
+        <v>-0.82</v>
       </c>
       <c r="H92" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="I92" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="J92" t="s">
         <v>15</v>
@@ -3427,13 +3427,13 @@
         <v>-1.37</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.88</v>
+        <v>-0.86</v>
       </c>
       <c r="H93" t="n">
-        <v>-1.39</v>
+        <v>-1.4</v>
       </c>
       <c r="I93" t="n">
-        <v>-3.64</v>
+        <v>-3.63</v>
       </c>
       <c r="J93" t="s">
         <v>15</v>
@@ -3459,13 +3459,13 @@
         <v>-0.3</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.17</v>
+        <v>-0.15</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.77</v>
+        <v>-0.76</v>
       </c>
       <c r="J94" t="s">
         <v>15</v>
@@ -3491,13 +3491,13 @@
         <v>-0.41</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07</v>
+        <v>-0.05</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.79</v>
+        <v>-0.78</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -3523,13 +3523,13 @@
         <v>1.15</v>
       </c>
       <c r="G96" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H96" t="n">
         <v>1.2</v>
       </c>
       <c r="I96" t="n">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
       <c r="J96" t="s">
         <v>15</v>
@@ -3543,25 +3543,25 @@
         <v>16</v>
       </c>
       <c r="C97" t="n">
-        <v>-2816.53</v>
+        <v>-2812.74</v>
       </c>
       <c r="D97" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E97" t="n">
-        <v>-2529.3</v>
+        <v>-2510.95</v>
       </c>
       <c r="F97" t="n">
         <v>-0.29</v>
       </c>
       <c r="G97" t="n">
-        <v>0.07</v>
+        <v>-0.01</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.33</v>
+        <v>-0.31</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.55</v>
+        <v>-0.61</v>
       </c>
       <c r="J97" t="s">
         <v>15</v>
@@ -3587,13 +3587,13 @@
         <v>1.17</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.89</v>
+        <v>-1.88</v>
       </c>
       <c r="H98" t="n">
         <v>1.33</v>
       </c>
       <c r="I98" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="J98" t="s">
         <v>16</v>
@@ -3622,7 +3622,7 @@
         <v>0.93</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="I99" t="n">
         <v>0.54</v>
@@ -3683,7 +3683,7 @@
         <v>-1.72</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="H101" t="n">
         <v>-1.63</v>
@@ -3735,25 +3735,25 @@
         <v>16</v>
       </c>
       <c r="C103" t="n">
-        <v>-19220.38</v>
+        <v>-19274.62</v>
       </c>
       <c r="D103" t="n">
         <v>0.59</v>
       </c>
       <c r="E103" t="n">
-        <v>-18581.93</v>
+        <v>-18643.82</v>
       </c>
       <c r="F103" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="G103" t="n">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="H103" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I103" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J103" t="s">
         <v>16</v>
@@ -3779,7 +3779,7 @@
         <v>-1.47</v>
       </c>
       <c r="G104" t="n">
-        <v>-1.94</v>
+        <v>-1.93</v>
       </c>
       <c r="H104" t="n">
         <v>-1.47</v>
@@ -3808,16 +3808,16 @@
         <v>-3432.11</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.63</v>
+        <v>-0.65</v>
       </c>
       <c r="G105" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.63</v>
+        <v>-0.65</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.95</v>
+        <v>-1</v>
       </c>
       <c r="J105" t="s">
         <v>14</v>
@@ -3840,16 +3840,16 @@
         <v>-3056.44</v>
       </c>
       <c r="F106" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="H106" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I106" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="J106" t="s">
         <v>14</v>
@@ -3872,16 +3872,16 @@
         <v>-2453.47</v>
       </c>
       <c r="F107" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="G107" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="H107" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="I107" t="n">
-        <v>3.72</v>
+        <v>3.57</v>
       </c>
       <c r="J107" t="s">
         <v>14</v>
@@ -3904,16 +3904,16 @@
         <v>-3152.44</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="G108" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="I108" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="J108" t="s">
         <v>14</v>
@@ -3927,25 +3927,25 @@
         <v>16</v>
       </c>
       <c r="C109" t="n">
-        <v>-3079.26</v>
+        <v>-2979.4</v>
       </c>
       <c r="D109" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E109" t="n">
-        <v>-2911.08</v>
+        <v>-2819.58</v>
       </c>
       <c r="F109" t="n">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="G109" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="H109" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="I109" t="n">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
@@ -3968,16 +3968,16 @@
         <v>-4235.83</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
       <c r="G110" t="n">
         <v>-1.94</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="I110" t="n">
-        <v>-2.55</v>
+        <v>-2.58</v>
       </c>
       <c r="J110" t="s">
         <v>15</v>
@@ -4032,16 +4032,16 @@
         <v>-2816.57</v>
       </c>
       <c r="F112" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="G112" t="n">
         <v>0.38</v>
       </c>
       <c r="H112" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="I112" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="J112" t="s">
         <v>15</v>
@@ -4064,16 +4064,16 @@
         <v>-4583.4</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="G113" t="n">
         <v>0.46</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.54</v>
+        <v>-0.55</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.58</v>
+        <v>-0.61</v>
       </c>
       <c r="J113" t="s">
         <v>15</v>
@@ -4096,16 +4096,16 @@
         <v>-2926.51</v>
       </c>
       <c r="F114" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="G114" t="n">
         <v>0.66</v>
       </c>
       <c r="H114" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="I114" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="J114" t="s">
         <v>15</v>
@@ -4119,25 +4119,25 @@
         <v>16</v>
       </c>
       <c r="C115" t="n">
-        <v>-3925.55</v>
+        <v>-3780.24</v>
       </c>
       <c r="D115" t="n">
         <v>0.79</v>
       </c>
       <c r="E115" t="n">
-        <v>-3443.69</v>
+        <v>-3332.43</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="G115" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="H115" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="I115" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="J115" t="s">
         <v>15</v>
@@ -4160,16 +4160,16 @@
         <v>-1576.14</v>
       </c>
       <c r="F116" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G116" t="n">
         <v>-0.89</v>
       </c>
       <c r="H116" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.62</v>
+        <v>-0.64</v>
       </c>
       <c r="J116" t="s">
         <v>14</v>
@@ -4192,7 +4192,7 @@
         <v>-1251.77</v>
       </c>
       <c r="F117" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="G117" t="n">
         <v>0.81</v>
@@ -4224,16 +4224,16 @@
         <v>-1276.94</v>
       </c>
       <c r="F118" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="G118" t="n">
         <v>-0.07</v>
       </c>
       <c r="H118" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I118" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
@@ -4265,7 +4265,7 @@
         <v>0.44</v>
       </c>
       <c r="I119" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
@@ -4294,7 +4294,7 @@
         <v>0.64</v>
       </c>
       <c r="H120" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I120" t="n">
         <v>1.36</v>
@@ -4311,13 +4311,13 @@
         <v>16</v>
       </c>
       <c r="C121" t="n">
-        <v>-3665.82</v>
+        <v>-3600.42</v>
       </c>
       <c r="D121" t="n">
         <v>0.09</v>
       </c>
       <c r="E121" t="n">
-        <v>-3302.99</v>
+        <v>-3245.91</v>
       </c>
       <c r="F121" t="n">
         <v>-2.02</v>
@@ -4329,7 +4329,7 @@
         <v>-2.02</v>
       </c>
       <c r="I121" t="n">
-        <v>-5.51</v>
+        <v>-5.5</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
@@ -4352,16 +4352,16 @@
         <v>-1861.47</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.79</v>
+        <v>-0.61</v>
       </c>
       <c r="G122" t="n">
         <v>-1.68</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.47</v>
+        <v>-0.33</v>
       </c>
       <c r="I122" t="n">
-        <v>-2.94</v>
+        <v>-2.62</v>
       </c>
       <c r="J122" t="s">
         <v>14</v>
@@ -4384,16 +4384,16 @@
         <v>-1471.83</v>
       </c>
       <c r="F123" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="H123" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="I123" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
@@ -4416,16 +4416,16 @@
         <v>-1570.13</v>
       </c>
       <c r="F124" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.77</v>
+        <v>-0.76</v>
       </c>
       <c r="H124" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.57</v>
+        <v>-0.45</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
@@ -4448,16 +4448,16 @@
         <v>-1149.7</v>
       </c>
       <c r="F125" t="n">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="G125" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="I125" t="n">
-        <v>2.61</v>
+        <v>2.52</v>
       </c>
       <c r="J125" t="s">
         <v>14</v>
@@ -4480,16 +4480,16 @@
         <v>-1115.76</v>
       </c>
       <c r="F126" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="G126" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="H126" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="I126" t="n">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="J126" t="s">
         <v>14</v>
@@ -4503,25 +4503,25 @@
         <v>16</v>
       </c>
       <c r="C127" t="n">
-        <v>-2902.43</v>
+        <v>-3187.86</v>
       </c>
       <c r="D127" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E127" t="n">
-        <v>-2521.32</v>
+        <v>-2790.68</v>
       </c>
       <c r="F127" t="n">
-        <v>-1.57</v>
+        <v>-1.7</v>
       </c>
       <c r="G127" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="H127" t="n">
-        <v>-1.73</v>
+        <v>-1.83</v>
       </c>
       <c r="I127" t="n">
-        <v>-2.68</v>
+        <v>-3.02</v>
       </c>
       <c r="J127" t="s">
         <v>14</v>
@@ -4928,19 +4928,19 @@
         <v>-1377.69</v>
       </c>
       <c r="F140" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H140" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I140" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="J140" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
@@ -4960,7 +4960,7 @@
         <v>-4742.46</v>
       </c>
       <c r="F141" t="n">
-        <v>-1.66</v>
+        <v>-1.67</v>
       </c>
       <c r="G141" t="n">
         <v>-0.04</v>
@@ -4969,10 +4969,10 @@
         <v>-1.78</v>
       </c>
       <c r="I141" t="n">
-        <v>-3.48</v>
+        <v>-3.49</v>
       </c>
       <c r="J141" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -4992,19 +4992,19 @@
         <v>-1354.02</v>
       </c>
       <c r="F142" t="n">
-        <v>0.69</v>
+        <v>0.77</v>
       </c>
       <c r="G142" t="n">
         <v>0.83</v>
       </c>
       <c r="H142" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I142" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="J142" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
@@ -5024,7 +5024,7 @@
         <v>-3130.87</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.81</v>
+        <v>-0.8</v>
       </c>
       <c r="G143" t="n">
         <v>-1.42</v>
@@ -5033,10 +5033,10 @@
         <v>-0.61</v>
       </c>
       <c r="I143" t="n">
-        <v>-2.84</v>
+        <v>-2.83</v>
       </c>
       <c r="J143" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
@@ -5056,19 +5056,19 @@
         <v>-1679.61</v>
       </c>
       <c r="F144" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="G144" t="n">
         <v>-0.97</v>
       </c>
       <c r="H144" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="J144" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -5079,28 +5079,28 @@
         <v>16</v>
       </c>
       <c r="C145" t="n">
-        <v>-2421.37</v>
+        <v>-2701.51</v>
       </c>
       <c r="D145" t="n">
         <v>0.4</v>
       </c>
       <c r="E145" t="n">
-        <v>-1459.12</v>
+        <v>-1383.73</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H145" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="I145" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="J145" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
